--- a/antigens/result.xlsx
+++ b/antigens/result.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruv\Documents\Coding\antigens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B8979079-5987-407E-951C-512657FC8AB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120C7BCC-BF59-45BA-8654-BE97F9194BFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4393" yWindow="1327" windowWidth="19200" windowHeight="10180"/>
+    <workbookView xWindow="4393" yWindow="1327" windowWidth="19200" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bcelltool" sheetId="1" r:id="rId1"/>
     <sheet name="tepitool" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="39">
   <si>
     <t>Position</t>
   </si>
@@ -118,11 +129,32 @@
   <si>
     <t>Seq #</t>
   </si>
+  <si>
+    <t>KHLLSLFKVSLFFLL</t>
+  </si>
+  <si>
+    <t>LFKVSLFFLLIFKYS</t>
+  </si>
+  <si>
+    <t>FFLLIFKYSYKNIVK</t>
+  </si>
+  <si>
+    <t>GIFSPEFVPIGVLSS</t>
+  </si>
+  <si>
+    <t>FVPIGVLSSMTAACP</t>
+  </si>
+  <si>
+    <t>PYIARTINFMTKYKG</t>
+  </si>
+  <si>
+    <t>ACPLIGTVTLPYIAR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -956,16 +988,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G283"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -978,236 +1010,232 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="G1">
-        <f>SUM(C2:C41)</f>
-        <v>23.706000000000007</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C2">
-        <v>0.29399999999999998</v>
+        <v>0.22</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>0.371</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>0.44400000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>0.51400000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>0.58599999999999997</v>
+        <v>0.36</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>0.61199999999999999</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>0.63700000000000001</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>0.67700000000000005</v>
+        <v>0.317</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>0.69399999999999995</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>0.68799999999999994</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>0.67400000000000004</v>
+        <v>0.248</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13">
-        <v>0.66700000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>0.65900000000000003</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>0.65300000000000002</v>
+        <v>0.251</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>0.64</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>0.63100000000000001</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1215,27 +1243,27 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>0.61199999999999999</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C19">
-        <v>0.59499999999999997</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1243,13 +1271,13 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>0.58799999999999997</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1257,168 +1285,164 @@
         <v>18</v>
       </c>
       <c r="C21">
-        <v>0.58699999999999997</v>
+        <v>0.434</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C22">
-        <v>0.58499999999999996</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23">
-        <v>0.58099999999999996</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>0.56599999999999995</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>0.56299999999999994</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>0.56000000000000005</v>
+        <v>0.54</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>0.56100000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>0.57299999999999995</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>0.58399999999999996</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>0.58799999999999997</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C31">
-        <v>0.59099999999999997</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C32">
-        <v>0.59299999999999997</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
-      </c>
-      <c r="G32">
-        <f>SUM(C3:C43)</f>
-        <v>24.647000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.5">
@@ -1426,10 +1450,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C33">
-        <v>0.60899999999999999</v>
+        <v>0.621</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -1440,10 +1464,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>0.61799999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -1454,10 +1478,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35">
-        <v>0.61799999999999999</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1468,10 +1492,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36">
-        <v>0.623</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
@@ -1485,7 +1509,7 @@
         <v>4</v>
       </c>
       <c r="C37">
-        <v>0.61299999999999999</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -1496,10 +1520,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C38">
-        <v>0.60699999999999998</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
@@ -1510,10 +1534,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C39">
-        <v>0.60799999999999998</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1524,10 +1548,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C40">
-        <v>0.61599999999999999</v>
+        <v>0.627</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
@@ -1541,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="C41">
-        <v>0.626</v>
+        <v>0.622</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1552,10 +1576,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>0.622</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -1566,10 +1590,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C43">
-        <v>0.61299999999999999</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -1580,10 +1604,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C44">
-        <v>0.61</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -1597,7 +1621,7 @@
         <v>17</v>
       </c>
       <c r="C45">
-        <v>0.60699999999999998</v>
+        <v>0.623</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
@@ -1608,10 +1632,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C46">
-        <v>0.61699999999999999</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -1622,10 +1646,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C47">
-        <v>0.622</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -1636,10 +1660,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C48">
-        <v>0.63400000000000001</v>
+        <v>0.621</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -1650,10 +1674,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C49">
-        <v>0.628</v>
+        <v>0.621</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -1664,10 +1688,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C50">
-        <v>0.626</v>
+        <v>0.621</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
@@ -1678,10 +1702,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C51">
-        <v>0.64500000000000002</v>
+        <v>0.622</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -1692,10 +1716,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52">
-        <v>0.65400000000000003</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -1706,10 +1730,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C53">
-        <v>0.66200000000000003</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="D53" t="s">
         <v>9</v>
@@ -1720,10 +1744,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>0.66600000000000004</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
@@ -1737,7 +1761,7 @@
         <v>4</v>
       </c>
       <c r="C55">
-        <v>0.65700000000000003</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
@@ -1748,10 +1772,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C56">
-        <v>0.65700000000000003</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
@@ -1762,10 +1786,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C57">
-        <v>0.65</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
@@ -1776,10 +1800,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C58">
-        <v>0.65700000000000003</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
@@ -1790,10 +1814,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C59">
-        <v>0.66200000000000003</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -1804,10 +1828,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C60">
-        <v>0.65900000000000003</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
@@ -1818,10 +1842,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C61">
-        <v>0.66400000000000003</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
@@ -1832,10 +1856,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C62">
-        <v>0.67300000000000004</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
@@ -1846,10 +1870,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C63">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
@@ -1860,10 +1884,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C64">
-        <v>0.68300000000000005</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
@@ -1874,10 +1898,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C65">
-        <v>0.68700000000000006</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
@@ -1888,10 +1912,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C66">
-        <v>0.69</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
@@ -1902,10 +1926,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C67">
-        <v>0.68700000000000006</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="D67" t="s">
         <v>9</v>
@@ -1916,10 +1940,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C68">
-        <v>0.69199999999999995</v>
+        <v>0.63</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
@@ -1933,7 +1957,7 @@
         <v>6</v>
       </c>
       <c r="C69">
-        <v>0.68600000000000005</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
@@ -1944,10 +1968,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C70">
-        <v>0.67800000000000005</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
@@ -1958,10 +1982,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C71">
-        <v>0.67600000000000005</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
@@ -1972,10 +1996,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C72">
-        <v>0.66700000000000004</v>
+        <v>0.628</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
@@ -1986,10 +2010,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C73">
-        <v>0.67200000000000004</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="D73" t="s">
         <v>9</v>
@@ -2000,10 +2024,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C74">
-        <v>0.66500000000000004</v>
+        <v>0.64</v>
       </c>
       <c r="D74" t="s">
         <v>9</v>
@@ -2014,10 +2038,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C75">
-        <v>0.66500000000000004</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
@@ -2028,10 +2052,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C76">
-        <v>0.67500000000000004</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="D76" t="s">
         <v>9</v>
@@ -2042,10 +2066,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C77">
-        <v>0.67200000000000004</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
@@ -2056,10 +2080,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C78">
-        <v>0.67400000000000004</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
@@ -2070,10 +2094,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C79">
-        <v>0.68300000000000005</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
@@ -2087,7 +2111,7 @@
         <v>4</v>
       </c>
       <c r="C80">
-        <v>0.68600000000000005</v>
+        <v>0.61</v>
       </c>
       <c r="D80" t="s">
         <v>9</v>
@@ -2098,10 +2122,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C81">
-        <v>0.68300000000000005</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
@@ -2112,10 +2136,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C82">
-        <v>0.67100000000000004</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="D82" t="s">
         <v>9</v>
@@ -2126,10 +2150,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C83">
-        <v>0.67300000000000004</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="D83" t="s">
         <v>9</v>
@@ -2140,10 +2164,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C84">
-        <v>0.66800000000000004</v>
+        <v>0.628</v>
       </c>
       <c r="D84" t="s">
         <v>9</v>
@@ -2154,10 +2178,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C85">
-        <v>0.65500000000000003</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
@@ -2168,10 +2192,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C86">
-        <v>0.64800000000000002</v>
+        <v>0.64</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
@@ -2185,7 +2209,7 @@
         <v>4</v>
       </c>
       <c r="C87">
-        <v>0.65100000000000002</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="D87" t="s">
         <v>9</v>
@@ -2196,10 +2220,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C88">
-        <v>0.63900000000000001</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
@@ -2210,10 +2234,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C89">
-        <v>0.629</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="D89" t="s">
         <v>9</v>
@@ -2224,10 +2248,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C90">
-        <v>0.63500000000000001</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="D90" t="s">
         <v>9</v>
@@ -2238,7 +2262,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C91">
         <v>0.64300000000000002</v>
@@ -2252,10 +2276,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C92">
-        <v>0.64300000000000002</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
@@ -2266,10 +2290,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C93">
-        <v>0.64400000000000002</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
@@ -2280,10 +2304,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C94">
-        <v>0.64200000000000002</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
@@ -2294,10 +2318,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C95">
-        <v>0.64900000000000002</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="D95" t="s">
         <v>9</v>
@@ -2308,10 +2332,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C96">
-        <v>0.64400000000000002</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
@@ -2322,10 +2346,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C97">
-        <v>0.64800000000000002</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="D97" t="s">
         <v>9</v>
@@ -2336,10 +2360,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C98">
-        <v>0.65200000000000002</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
@@ -2350,10 +2374,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C99">
-        <v>0.65</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="D99" t="s">
         <v>9</v>
@@ -2364,10 +2388,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C100">
-        <v>0.64700000000000002</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
@@ -2378,10 +2402,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C101">
-        <v>0.64200000000000002</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="D101" t="s">
         <v>9</v>
@@ -2392,10 +2416,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C102">
-        <v>0.63900000000000001</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="D102" t="s">
         <v>9</v>
@@ -2406,10 +2430,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C103">
-        <v>0.65200000000000002</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="D103" t="s">
         <v>9</v>
@@ -2420,10 +2444,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C104">
-        <v>0.64800000000000002</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="D104" t="s">
         <v>9</v>
@@ -2434,10 +2458,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C105">
-        <v>0.64700000000000002</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="D105" t="s">
         <v>9</v>
@@ -2448,10 +2472,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C106">
-        <v>0.64200000000000002</v>
+        <v>0.629</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
@@ -2462,10 +2486,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C107">
-        <v>0.64300000000000002</v>
+        <v>0.62</v>
       </c>
       <c r="D107" t="s">
         <v>9</v>
@@ -2476,10 +2500,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C108">
-        <v>0.64</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="D108" t="s">
         <v>9</v>
@@ -2490,10 +2514,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C109">
-        <v>0.64200000000000002</v>
+        <v>0.621</v>
       </c>
       <c r="D109" t="s">
         <v>9</v>
@@ -2504,10 +2528,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C110">
-        <v>0.64</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="D110" t="s">
         <v>9</v>
@@ -2518,10 +2542,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C111">
-        <v>0.64800000000000002</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="D111" t="s">
         <v>9</v>
@@ -2532,10 +2556,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C112">
-        <v>0.63800000000000001</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="D112" t="s">
         <v>9</v>
@@ -2546,10 +2570,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C113">
-        <v>0.64</v>
+        <v>0.625</v>
       </c>
       <c r="D113" t="s">
         <v>9</v>
@@ -2560,10 +2584,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C114">
-        <v>0.65200000000000002</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="D114" t="s">
         <v>9</v>
@@ -2574,10 +2598,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C115">
-        <v>0.66300000000000003</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="D115" t="s">
         <v>9</v>
@@ -2588,10 +2612,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C116">
-        <v>0.66200000000000003</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="D116" t="s">
         <v>9</v>
@@ -2602,10 +2626,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C117">
-        <v>0.66700000000000004</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="D117" t="s">
         <v>9</v>
@@ -2616,10 +2640,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C118">
-        <v>0.66400000000000003</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="D118" t="s">
         <v>9</v>
@@ -2630,10 +2654,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C119">
-        <v>0.67400000000000004</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="D119" t="s">
         <v>9</v>
@@ -2644,10 +2668,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C120">
-        <v>0.67</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="D120" t="s">
         <v>9</v>
@@ -2658,10 +2682,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C121">
-        <v>0.67300000000000004</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="D121" t="s">
         <v>9</v>
@@ -2672,10 +2696,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C122">
-        <v>0.66800000000000004</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="D122" t="s">
         <v>9</v>
@@ -2686,10 +2710,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C123">
-        <v>0.66300000000000003</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D123" t="s">
         <v>9</v>
@@ -2700,10 +2724,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C124">
-        <v>0.65800000000000003</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="D124" t="s">
         <v>9</v>
@@ -2714,10 +2738,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C125">
-        <v>0.65700000000000003</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="D125" t="s">
         <v>9</v>
@@ -2728,10 +2752,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C126">
-        <v>0.65900000000000003</v>
+        <v>0.622</v>
       </c>
       <c r="D126" t="s">
         <v>9</v>
@@ -2742,10 +2766,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C127">
-        <v>0.67200000000000004</v>
+        <v>0.62</v>
       </c>
       <c r="D127" t="s">
         <v>9</v>
@@ -2756,10 +2780,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C128">
-        <v>0.67400000000000004</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="D128" t="s">
         <v>9</v>
@@ -2770,10 +2794,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C129">
-        <v>0.68</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="D129" t="s">
         <v>9</v>
@@ -2784,10 +2808,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C130">
-        <v>0.67700000000000005</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="D130" t="s">
         <v>9</v>
@@ -2798,10 +2822,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C131">
-        <v>0.68700000000000006</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="D131" t="s">
         <v>9</v>
@@ -2812,10 +2836,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C132">
-        <v>0.68100000000000005</v>
+        <v>0.61</v>
       </c>
       <c r="D132" t="s">
         <v>9</v>
@@ -2826,10 +2850,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C133">
-        <v>0.67900000000000005</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="D133" t="s">
         <v>9</v>
@@ -2840,10 +2864,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C134">
-        <v>0.67700000000000005</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="D134" t="s">
         <v>9</v>
@@ -2854,10 +2878,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C135">
-        <v>0.67900000000000005</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="D135" t="s">
         <v>9</v>
@@ -2868,10 +2892,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C136">
-        <v>0.66700000000000004</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="D136" t="s">
         <v>9</v>
@@ -2882,10 +2906,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C137">
-        <v>0.66100000000000003</v>
+        <v>0.621</v>
       </c>
       <c r="D137" t="s">
         <v>9</v>
@@ -2896,10 +2920,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C138">
-        <v>0.65200000000000002</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="D138" t="s">
         <v>9</v>
@@ -2910,10 +2934,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C139">
-        <v>0.66100000000000003</v>
+        <v>0.622</v>
       </c>
       <c r="D139" t="s">
         <v>9</v>
@@ -2924,10 +2948,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C140">
-        <v>0.65200000000000002</v>
+        <v>0.62</v>
       </c>
       <c r="D140" t="s">
         <v>9</v>
@@ -2938,10 +2962,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C141">
-        <v>0.65700000000000003</v>
+        <v>0.622</v>
       </c>
       <c r="D141" t="s">
         <v>9</v>
@@ -2952,10 +2976,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C142">
-        <v>0.66</v>
+        <v>0.623</v>
       </c>
       <c r="D142" t="s">
         <v>9</v>
@@ -2966,10 +2990,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C143">
-        <v>0.66400000000000003</v>
+        <v>0.624</v>
       </c>
       <c r="D143" t="s">
         <v>9</v>
@@ -2980,10 +3004,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C144">
-        <v>0.65700000000000003</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="D144" t="s">
         <v>9</v>
@@ -2994,10 +3018,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C145">
-        <v>0.66200000000000003</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="D145" t="s">
         <v>9</v>
@@ -3008,10 +3032,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C146">
-        <v>0.65800000000000003</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="D146" t="s">
         <v>9</v>
@@ -3022,10 +3046,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C147">
-        <v>0.66500000000000004</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D147" t="s">
         <v>9</v>
@@ -3036,10 +3060,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C148">
-        <v>0.66</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="D148" t="s">
         <v>9</v>
@@ -3050,10 +3074,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C149">
-        <v>0.66800000000000004</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="D149" t="s">
         <v>9</v>
@@ -3064,10 +3088,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C150">
-        <v>0.67</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="D150" t="s">
         <v>9</v>
@@ -3078,10 +3102,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C151">
-        <v>0.67300000000000004</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="D151" t="s">
         <v>9</v>
@@ -3092,10 +3116,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C152">
-        <v>0.66800000000000004</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="D152" t="s">
         <v>9</v>
@@ -3106,10 +3130,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C153">
-        <v>0.67100000000000004</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="D153" t="s">
         <v>9</v>
@@ -3120,10 +3144,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C154">
-        <v>0.66100000000000003</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="D154" t="s">
         <v>9</v>
@@ -3134,10 +3158,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C155">
-        <v>0.67100000000000004</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="D155" t="s">
         <v>9</v>
@@ -3148,10 +3172,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C156">
-        <v>0.66600000000000004</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="D156" t="s">
         <v>9</v>
@@ -3162,10 +3186,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C157">
-        <v>0.66500000000000004</v>
+        <v>0.628</v>
       </c>
       <c r="D157" t="s">
         <v>9</v>
@@ -3176,10 +3200,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C158">
-        <v>0.65600000000000003</v>
+        <v>0.624</v>
       </c>
       <c r="D158" t="s">
         <v>9</v>
@@ -3190,10 +3214,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C159">
-        <v>0.65600000000000003</v>
+        <v>0.621</v>
       </c>
       <c r="D159" t="s">
         <v>9</v>
@@ -3204,10 +3228,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C160">
-        <v>0.64800000000000002</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="D160" t="s">
         <v>9</v>
@@ -3218,10 +3242,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C161">
-        <v>0.65200000000000002</v>
+        <v>0.623</v>
       </c>
       <c r="D161" t="s">
         <v>9</v>
@@ -3232,10 +3256,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C162">
-        <v>0.66100000000000003</v>
+        <v>0.62</v>
       </c>
       <c r="D162" t="s">
         <v>9</v>
@@ -3246,10 +3270,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C163">
-        <v>0.67200000000000004</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="D163" t="s">
         <v>9</v>
@@ -3260,10 +3284,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C164">
-        <v>0.66600000000000004</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="D164" t="s">
         <v>9</v>
@@ -3274,10 +3298,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C165">
-        <v>0.66800000000000004</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="D165" t="s">
         <v>9</v>
@@ -3288,10 +3312,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C166">
-        <v>0.66600000000000004</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="D166" t="s">
         <v>9</v>
@@ -3302,10 +3326,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C167">
-        <v>0.67300000000000004</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="D167" t="s">
         <v>9</v>
@@ -3316,10 +3340,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C168">
-        <v>0.66800000000000004</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="D168" t="s">
         <v>9</v>
@@ -3330,10 +3354,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C169">
-        <v>0.67500000000000004</v>
+        <v>0.624</v>
       </c>
       <c r="D169" t="s">
         <v>9</v>
@@ -3344,10 +3368,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C170">
-        <v>0.67300000000000004</v>
+        <v>0.62</v>
       </c>
       <c r="D170" t="s">
         <v>9</v>
@@ -3358,10 +3382,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C171">
-        <v>0.66700000000000004</v>
+        <v>0.626</v>
       </c>
       <c r="D171" t="s">
         <v>9</v>
@@ -3372,10 +3396,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C172">
-        <v>0.65900000000000003</v>
+        <v>0.628</v>
       </c>
       <c r="D172" t="s">
         <v>9</v>
@@ -3386,10 +3410,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C173">
-        <v>0.66100000000000003</v>
+        <v>0.63</v>
       </c>
       <c r="D173" t="s">
         <v>9</v>
@@ -3400,10 +3424,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C174">
-        <v>0.65900000000000003</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="D174" t="s">
         <v>9</v>
@@ -3414,10 +3438,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C175">
-        <v>0.66300000000000003</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="D175" t="s">
         <v>9</v>
@@ -3428,10 +3452,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C176">
-        <v>0.65700000000000003</v>
+        <v>0.628</v>
       </c>
       <c r="D176" t="s">
         <v>9</v>
@@ -3442,10 +3466,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C177">
-        <v>0.66500000000000004</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="D177" t="s">
         <v>9</v>
@@ -3456,10 +3480,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C178">
-        <v>0.66200000000000003</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="D178" t="s">
         <v>9</v>
@@ -3470,10 +3494,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C179">
-        <v>0.66700000000000004</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="D179" t="s">
         <v>9</v>
@@ -3484,10 +3508,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C180">
-        <v>0.66</v>
+        <v>0.628</v>
       </c>
       <c r="D180" t="s">
         <v>9</v>
@@ -3498,10 +3522,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C181">
-        <v>0.66500000000000004</v>
+        <v>0.629</v>
       </c>
       <c r="D181" t="s">
         <v>9</v>
@@ -3512,10 +3536,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C182">
-        <v>0.66600000000000004</v>
+        <v>0.625</v>
       </c>
       <c r="D182" t="s">
         <v>9</v>
@@ -3526,10 +3550,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C183">
-        <v>0.66900000000000004</v>
+        <v>0.624</v>
       </c>
       <c r="D183" t="s">
         <v>9</v>
@@ -3540,10 +3564,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C184">
-        <v>0.66100000000000003</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="D184" t="s">
         <v>9</v>
@@ -3554,10 +3578,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C185">
-        <v>0.66700000000000004</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="D185" t="s">
         <v>9</v>
@@ -3568,10 +3592,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C186">
-        <v>0.65800000000000003</v>
+        <v>0.64</v>
       </c>
       <c r="D186" t="s">
         <v>9</v>
@@ -3582,10 +3606,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C187">
-        <v>0.65600000000000003</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="D187" t="s">
         <v>9</v>
@@ -3596,10 +3620,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C188">
-        <v>0.64900000000000002</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="D188" t="s">
         <v>9</v>
@@ -3610,10 +3634,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C189">
-        <v>0.65200000000000002</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="D189" t="s">
         <v>9</v>
@@ -3624,10 +3648,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C190">
-        <v>0.64300000000000002</v>
+        <v>0.64</v>
       </c>
       <c r="D190" t="s">
         <v>9</v>
@@ -3638,10 +3662,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C191">
-        <v>0.64</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="D191" t="s">
         <v>9</v>
@@ -3652,10 +3676,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C192">
-        <v>0.63500000000000001</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="D192" t="s">
         <v>9</v>
@@ -3666,10 +3690,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C193">
-        <v>0.64700000000000002</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="D193" t="s">
         <v>9</v>
@@ -3680,10 +3704,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C194">
-        <v>0.64600000000000002</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="D194" t="s">
         <v>9</v>
@@ -3694,10 +3718,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C195">
-        <v>0.65300000000000002</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="D195" t="s">
         <v>9</v>
@@ -3708,10 +3732,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C196">
-        <v>0.65200000000000002</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="D196" t="s">
         <v>9</v>
@@ -3722,10 +3746,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C197">
-        <v>0.65600000000000003</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="D197" t="s">
         <v>9</v>
@@ -3736,10 +3760,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C198">
-        <v>0.65700000000000003</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="D198" t="s">
         <v>9</v>
@@ -3750,10 +3774,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C199">
-        <v>0.66400000000000003</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="D199" t="s">
         <v>9</v>
@@ -3764,10 +3788,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C200">
-        <v>0.66100000000000003</v>
+        <v>0.628</v>
       </c>
       <c r="D200" t="s">
         <v>9</v>
@@ -3778,10 +3802,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C201">
-        <v>0.66900000000000004</v>
+        <v>0.624</v>
       </c>
       <c r="D201" t="s">
         <v>9</v>
@@ -3792,10 +3816,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C202">
-        <v>0.65900000000000003</v>
+        <v>0.626</v>
       </c>
       <c r="D202" t="s">
         <v>9</v>
@@ -3806,10 +3830,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C203">
-        <v>0.65200000000000002</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="D203" t="s">
         <v>9</v>
@@ -3820,10 +3844,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C204">
-        <v>0.64400000000000002</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="D204" t="s">
         <v>9</v>
@@ -3834,10 +3858,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C205">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="D205" t="s">
         <v>9</v>
@@ -3848,10 +3872,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C206">
-        <v>0.628</v>
+        <v>0.626</v>
       </c>
       <c r="D206" t="s">
         <v>9</v>
@@ -3862,10 +3886,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C207">
-        <v>0.63200000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="D207" t="s">
         <v>9</v>
@@ -3876,10 +3900,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C208">
-        <v>0.63200000000000001</v>
+        <v>0.628</v>
       </c>
       <c r="D208" t="s">
         <v>9</v>
@@ -3890,7 +3914,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C209">
         <v>0.63300000000000001</v>
@@ -3904,10 +3928,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C210">
-        <v>0.62</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="D210" t="s">
         <v>9</v>
@@ -3918,10 +3942,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C211">
-        <v>0.623</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="D211" t="s">
         <v>9</v>
@@ -3932,7 +3956,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C212">
         <v>0.623</v>
@@ -3946,10 +3970,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C213">
-        <v>0.63</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="D213" t="s">
         <v>9</v>
@@ -3960,10 +3984,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C214">
-        <v>0.63800000000000001</v>
+        <v>0.621</v>
       </c>
       <c r="D214" t="s">
         <v>9</v>
@@ -3977,7 +4001,7 @@
         <v>13</v>
       </c>
       <c r="C215">
-        <v>0.65100000000000002</v>
+        <v>0.629</v>
       </c>
       <c r="D215" t="s">
         <v>9</v>
@@ -3988,10 +4012,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C216">
-        <v>0.65200000000000002</v>
+        <v>0.627</v>
       </c>
       <c r="D216" t="s">
         <v>9</v>
@@ -4002,10 +4026,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C217">
-        <v>0.65600000000000003</v>
+        <v>0.626</v>
       </c>
       <c r="D217" t="s">
         <v>9</v>
@@ -4016,10 +4040,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C218">
-        <v>0.66300000000000003</v>
+        <v>0.626</v>
       </c>
       <c r="D218" t="s">
         <v>9</v>
@@ -4030,10 +4054,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C219">
-        <v>0.67500000000000004</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="D219" t="s">
         <v>9</v>
@@ -4044,10 +4068,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C220">
-        <v>0.68</v>
+        <v>0.629</v>
       </c>
       <c r="D220" t="s">
         <v>9</v>
@@ -4058,10 +4082,10 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C221">
-        <v>0.69499999999999995</v>
+        <v>0.63</v>
       </c>
       <c r="D221" t="s">
         <v>9</v>
@@ -4072,10 +4096,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C222">
-        <v>0.69199999999999995</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="D222" t="s">
         <v>9</v>
@@ -4086,10 +4110,10 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C223">
-        <v>0.68400000000000005</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="D223" t="s">
         <v>9</v>
@@ -4100,10 +4124,10 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C224">
-        <v>0.68300000000000005</v>
+        <v>0.624</v>
       </c>
       <c r="D224" t="s">
         <v>9</v>
@@ -4114,10 +4138,10 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C225">
-        <v>0.68600000000000005</v>
+        <v>0.621</v>
       </c>
       <c r="D225" t="s">
         <v>9</v>
@@ -4131,7 +4155,7 @@
         <v>13</v>
       </c>
       <c r="C226">
-        <v>0.68</v>
+        <v>0.623</v>
       </c>
       <c r="D226" t="s">
         <v>9</v>
@@ -4142,10 +4166,10 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C227">
-        <v>0.66900000000000004</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="D227" t="s">
         <v>9</v>
@@ -4156,10 +4180,10 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C228">
-        <v>0.66800000000000004</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="D228" t="s">
         <v>9</v>
@@ -4173,7 +4197,7 @@
         <v>4</v>
       </c>
       <c r="C229">
-        <v>0.66400000000000003</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="D229" t="s">
         <v>9</v>
@@ -4184,10 +4208,10 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C230">
-        <v>0.64900000000000002</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="D230" t="s">
         <v>9</v>
@@ -4198,10 +4222,10 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C231">
-        <v>0.63600000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="D231" t="s">
         <v>9</v>
@@ -4212,10 +4236,10 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C232">
-        <v>0.63400000000000001</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="D232" t="s">
         <v>9</v>
@@ -4226,10 +4250,10 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C233">
-        <v>0.629</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="D233" t="s">
         <v>9</v>
@@ -4240,10 +4264,10 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C234">
-        <v>0.61699999999999999</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="D234" t="s">
         <v>9</v>
@@ -4254,10 +4278,10 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C235">
-        <v>0.62</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="D235" t="s">
         <v>9</v>
@@ -4268,10 +4292,10 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C236">
-        <v>0.624</v>
+        <v>0.623</v>
       </c>
       <c r="D236" t="s">
         <v>9</v>
@@ -4282,10 +4306,10 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C237">
-        <v>0.623</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="D237" t="s">
         <v>9</v>
@@ -4296,10 +4320,10 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C238">
-        <v>0.61299999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="D238" t="s">
         <v>9</v>
@@ -4310,10 +4334,10 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C239">
-        <v>0.60599999999999998</v>
+        <v>0.621</v>
       </c>
       <c r="D239" t="s">
         <v>9</v>
@@ -4324,10 +4348,10 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C240">
-        <v>0.61099999999999999</v>
+        <v>0.622</v>
       </c>
       <c r="D240" t="s">
         <v>9</v>
@@ -4338,10 +4362,10 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C241">
-        <v>0.60899999999999999</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="D241" t="s">
         <v>9</v>
@@ -4352,10 +4376,10 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C242">
-        <v>0.60099999999999998</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="D242" t="s">
         <v>9</v>
@@ -4366,10 +4390,10 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C243">
-        <v>0.59099999999999997</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="D243" t="s">
         <v>9</v>
@@ -4380,10 +4404,10 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C244">
-        <v>0.58499999999999996</v>
+        <v>0.622</v>
       </c>
       <c r="D244" t="s">
         <v>9</v>
@@ -4397,7 +4421,7 @@
         <v>15</v>
       </c>
       <c r="C245">
-        <v>0.57399999999999995</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="D245" t="s">
         <v>9</v>
@@ -4408,10 +4432,10 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C246">
-        <v>0.55000000000000004</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="D246" t="s">
         <v>9</v>
@@ -4422,10 +4446,10 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C247">
-        <v>0.55600000000000005</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="D247" t="s">
         <v>9</v>
@@ -4436,10 +4460,10 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C248">
-        <v>0.56000000000000005</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="D248" t="s">
         <v>9</v>
@@ -4450,10 +4474,10 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C249">
-        <v>0.55800000000000005</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="D249" t="s">
         <v>9</v>
@@ -4467,7 +4491,7 @@
         <v>7</v>
       </c>
       <c r="C250">
-        <v>0.55200000000000005</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="D250" t="s">
         <v>9</v>
@@ -4481,7 +4505,7 @@
         <v>4</v>
       </c>
       <c r="C251">
-        <v>0.56000000000000005</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="D251" t="s">
         <v>9</v>
@@ -4492,10 +4516,10 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C252">
-        <v>0.57099999999999995</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="D252" t="s">
         <v>9</v>
@@ -4506,10 +4530,10 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C253">
-        <v>0.57899999999999996</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="D253" t="s">
         <v>9</v>
@@ -4520,10 +4544,10 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C254">
-        <v>0.59899999999999998</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="D254" t="s">
         <v>9</v>
@@ -4534,10 +4558,10 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C255">
-        <v>0.624</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="D255" t="s">
         <v>9</v>
@@ -4548,10 +4572,10 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C256">
-        <v>0.63</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="D256" t="s">
         <v>9</v>
@@ -4562,10 +4586,10 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C257">
-        <v>0.63800000000000001</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D257" t="s">
         <v>9</v>
@@ -4576,10 +4600,10 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C258">
-        <v>0.63800000000000001</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="D258" t="s">
         <v>9</v>
@@ -4590,10 +4614,10 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C259">
-        <v>0.64300000000000002</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="D259" t="s">
         <v>9</v>
@@ -4604,10 +4628,10 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C260">
-        <v>0.63700000000000001</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="D260" t="s">
         <v>9</v>
@@ -4618,10 +4642,10 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C261">
-        <v>0.63</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="D261" t="s">
         <v>9</v>
@@ -4632,10 +4656,10 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C262">
-        <v>0.60699999999999998</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="D262" t="s">
         <v>9</v>
@@ -4649,7 +4673,7 @@
         <v>13</v>
       </c>
       <c r="C263">
-        <v>0.58099999999999996</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="D263" t="s">
         <v>9</v>
@@ -4660,10 +4684,10 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C264">
-        <v>0.55800000000000005</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="D264" t="s">
         <v>9</v>
@@ -4674,10 +4698,10 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C265">
-        <v>0.53600000000000003</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="D265" t="s">
         <v>9</v>
@@ -4688,10 +4712,10 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C266">
-        <v>0.51500000000000001</v>
+        <v>0.621</v>
       </c>
       <c r="D266" t="s">
         <v>9</v>
@@ -4702,10 +4726,10 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C267">
-        <v>0.50800000000000001</v>
+        <v>0.627</v>
       </c>
       <c r="D267" t="s">
         <v>9</v>
@@ -4716,13 +4740,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C268">
-        <v>0.499</v>
+        <v>0.625</v>
       </c>
       <c r="D268" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.5">
@@ -4730,13 +4754,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C269">
-        <v>0.498</v>
+        <v>0.64</v>
       </c>
       <c r="D269" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.5">
@@ -4744,10 +4768,10 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C270">
-        <v>0.505</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="D270" t="s">
         <v>9</v>
@@ -4758,10 +4782,10 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C271">
-        <v>0.52300000000000002</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="D271" t="s">
         <v>9</v>
@@ -4772,10 +4796,10 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C272">
-        <v>0.53800000000000003</v>
+        <v>0.64</v>
       </c>
       <c r="D272" t="s">
         <v>9</v>
@@ -4786,10 +4810,10 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C273">
-        <v>0.54200000000000004</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="D273" t="s">
         <v>9</v>
@@ -4800,10 +4824,10 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C274">
-        <v>0.54500000000000004</v>
+        <v>0.621</v>
       </c>
       <c r="D274" t="s">
         <v>9</v>
@@ -4817,7 +4841,7 @@
         <v>7</v>
       </c>
       <c r="C275">
-        <v>0.55500000000000005</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="D275" t="s">
         <v>9</v>
@@ -4828,10 +4852,10 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C276">
-        <v>0.55000000000000004</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="D276" t="s">
         <v>9</v>
@@ -4842,10 +4866,10 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C277">
-        <v>0.54600000000000004</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="D277" t="s">
         <v>9</v>
@@ -4856,10 +4880,10 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C278">
-        <v>0.55300000000000005</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="D278" t="s">
         <v>9</v>
@@ -4870,10 +4894,10 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C279">
-        <v>0.53800000000000003</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="D279" t="s">
         <v>9</v>
@@ -4884,13 +4908,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C280">
-        <v>0.46899999999999997</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="D280" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.5">
@@ -4898,13 +4922,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C281">
-        <v>0.40200000000000002</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="D281" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.5">
@@ -4912,13 +4936,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C282">
-        <v>0.34399999999999997</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="D282" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.5">
@@ -4926,12 +4950,922 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
+        <v>22</v>
+      </c>
+      <c r="C283">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="D283" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>15</v>
+      </c>
+      <c r="C284">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="D284" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>13</v>
+      </c>
+      <c r="C285">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="D285" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
+        <v>19</v>
+      </c>
+      <c r="C286">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="D286" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>19</v>
+      </c>
+      <c r="C287">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D287" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>8</v>
+      </c>
+      <c r="C288">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="D288" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>6</v>
+      </c>
+      <c r="C289">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="D289" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
+        <v>6</v>
+      </c>
+      <c r="C290">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="D290" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>22</v>
+      </c>
+      <c r="C291">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="D291" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
         <v>7</v>
       </c>
-      <c r="C283">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="D283" t="s">
+      <c r="C292">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="D292" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>17</v>
+      </c>
+      <c r="C293">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="D293" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>6</v>
+      </c>
+      <c r="C294">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="D294" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>10</v>
+      </c>
+      <c r="C295">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="D295" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>10</v>
+      </c>
+      <c r="C296">
+        <v>0.624</v>
+      </c>
+      <c r="D296" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="D297" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>14</v>
+      </c>
+      <c r="C298">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="D298" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="D299" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>23</v>
+      </c>
+      <c r="C300">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="D300" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>9</v>
+      </c>
+      <c r="C301">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="D301" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>14</v>
+      </c>
+      <c r="C302">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="D302" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>8</v>
+      </c>
+      <c r="C303">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="D303" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A304">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>23</v>
+      </c>
+      <c r="C304">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D304" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A305">
+        <v>303</v>
+      </c>
+      <c r="B305" t="s">
+        <v>7</v>
+      </c>
+      <c r="C305">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="D305" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306" t="s">
+        <v>10</v>
+      </c>
+      <c r="C306">
+        <v>0.495</v>
+      </c>
+      <c r="D306" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A307">
+        <v>305</v>
+      </c>
+      <c r="B307" t="s">
+        <v>8</v>
+      </c>
+      <c r="C307">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="D307" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A308">
+        <v>306</v>
+      </c>
+      <c r="B308" t="s">
+        <v>19</v>
+      </c>
+      <c r="C308">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D308" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A309">
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>15</v>
+      </c>
+      <c r="C309">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="D309" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A310">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>15</v>
+      </c>
+      <c r="C310">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="D310" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A311">
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>21</v>
+      </c>
+      <c r="C311">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="D311" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A312">
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
+        <v>17</v>
+      </c>
+      <c r="C312">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="D312" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313" t="s">
+        <v>16</v>
+      </c>
+      <c r="C313">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="D313" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>16</v>
+      </c>
+      <c r="C314">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="D314" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>20</v>
+      </c>
+      <c r="C315">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="D315" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
+        <v>23</v>
+      </c>
+      <c r="C316">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="D316" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>19</v>
+      </c>
+      <c r="C317">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="D317" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
+        <v>7</v>
+      </c>
+      <c r="C318">
+        <v>0.443</v>
+      </c>
+      <c r="D318" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>10</v>
+      </c>
+      <c r="C319">
+        <v>0.438</v>
+      </c>
+      <c r="D319" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>17</v>
+      </c>
+      <c r="C320">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="D320" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>8</v>
+      </c>
+      <c r="C321">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="D321" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322" t="s">
+        <v>17</v>
+      </c>
+      <c r="C322">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="D322" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>19</v>
+      </c>
+      <c r="C323">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="D323" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>23</v>
+      </c>
+      <c r="C324">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="D324" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>18</v>
+      </c>
+      <c r="C325">
+        <v>0.41</v>
+      </c>
+      <c r="D325" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326" t="s">
+        <v>7</v>
+      </c>
+      <c r="C326">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="D326" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>16</v>
+      </c>
+      <c r="C327">
+        <v>0.42</v>
+      </c>
+      <c r="D327" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>11</v>
+      </c>
+      <c r="C328">
+        <v>0.41</v>
+      </c>
+      <c r="D328" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>17</v>
+      </c>
+      <c r="C329">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="D329" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330" t="s">
+        <v>7</v>
+      </c>
+      <c r="C330">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="D330" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331" t="s">
+        <v>6</v>
+      </c>
+      <c r="C331">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="D331" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332" t="s">
+        <v>14</v>
+      </c>
+      <c r="C332">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="D332" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A333">
+        <v>331</v>
+      </c>
+      <c r="B333" t="s">
+        <v>21</v>
+      </c>
+      <c r="C333">
+        <v>0.46</v>
+      </c>
+      <c r="D333" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A334">
+        <v>332</v>
+      </c>
+      <c r="B334" t="s">
+        <v>17</v>
+      </c>
+      <c r="C334">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="D334" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A335">
+        <v>333</v>
+      </c>
+      <c r="B335" t="s">
+        <v>4</v>
+      </c>
+      <c r="C335">
+        <v>0.51</v>
+      </c>
+      <c r="D335" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A336">
+        <v>334</v>
+      </c>
+      <c r="B336" t="s">
+        <v>18</v>
+      </c>
+      <c r="C336">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="D336" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A337">
+        <v>335</v>
+      </c>
+      <c r="B337" t="s">
+        <v>4</v>
+      </c>
+      <c r="C337">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="D337" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A338">
+        <v>336</v>
+      </c>
+      <c r="B338" t="s">
+        <v>10</v>
+      </c>
+      <c r="C338">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="D338" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A339">
+        <v>337</v>
+      </c>
+      <c r="B339" t="s">
+        <v>9</v>
+      </c>
+      <c r="C339">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D339" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A340">
+        <v>338</v>
+      </c>
+      <c r="B340" t="s">
+        <v>4</v>
+      </c>
+      <c r="C340">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="D340" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A341">
+        <v>339</v>
+      </c>
+      <c r="B341" t="s">
+        <v>7</v>
+      </c>
+      <c r="C341">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="D341" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A342">
+        <v>340</v>
+      </c>
+      <c r="B342" t="s">
+        <v>18</v>
+      </c>
+      <c r="C342">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="D342" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A343">
+        <v>341</v>
+      </c>
+      <c r="B343" t="s">
+        <v>17</v>
+      </c>
+      <c r="C343">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="D343" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A344">
+        <v>342</v>
+      </c>
+      <c r="B344" t="s">
+        <v>9</v>
+      </c>
+      <c r="C344">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="D344" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A345">
+        <v>343</v>
+      </c>
+      <c r="B345" t="s">
+        <v>12</v>
+      </c>
+      <c r="C345">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="D345" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A346">
+        <v>344</v>
+      </c>
+      <c r="B346" t="s">
+        <v>4</v>
+      </c>
+      <c r="C346">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="D346" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A347">
+        <v>345</v>
+      </c>
+      <c r="B347" t="s">
+        <v>15</v>
+      </c>
+      <c r="C347">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="D347" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A348">
+        <v>346</v>
+      </c>
+      <c r="B348" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="D348" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4941,11 +5875,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4972,16 +5906,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>247</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>261</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
@@ -4989,16 +5923,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>242</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.5">
@@ -5006,19 +5940,139 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>269</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>283</v>
       </c>
       <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>264</v>
+      </c>
+      <c r="C6">
+        <v>278</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>295</v>
+      </c>
+      <c r="C7">
+        <v>309</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
+      <c r="E8">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>301</v>
+      </c>
+      <c r="C9">
+        <v>315</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>323</v>
+      </c>
+      <c r="C10">
+        <v>337</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>313</v>
+      </c>
+      <c r="C11">
+        <v>327</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>